--- a/Avinash Task tracking (1).xlsx
+++ b/Avinash Task tracking (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja_joshi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash_perikala\Desktop\GIT DOCUMENT\avinash_perikala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC5F7DC-4250-458B-9834-2020B92C478F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB1363-8920-45EF-8857-513A1D516808}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6B2113AA-2083-492E-9199-B5DEE926F3A7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Week 3" sheetId="3" r:id="rId3"/>
     <sheet name="Week 4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Tasks</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Not Satisfied</t>
-  </si>
-  <si>
-    <t>Download Cognos trial version on PSL laptop and keep it ready for further tasks</t>
   </si>
   <si>
     <t>Come up with understanding document for:
@@ -752,7 +749,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,15 +799,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="12"/>
@@ -820,13 +815,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -883,7 +878,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">

--- a/Avinash Task tracking (1).xlsx
+++ b/Avinash Task tracking (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash_perikala\Desktop\GIT DOCUMENT\avinash_perikala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB1363-8920-45EF-8857-513A1D516808}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDAD711-BBFF-4BEC-8047-A7FD1FE1D7C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6B2113AA-2083-492E-9199-B5DEE926F3A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Tasks</t>
   </si>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Not Satisfied</t>
-  </si>
-  <si>
-    <t>1. Documents were not completed and sent. Still did not receive it.
-2. No daily status email received even after reminding in 2 feedback meetings</t>
   </si>
 </sst>
 </file>
@@ -749,7 +745,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,9 +816,7 @@
       <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
